--- a/Data/excel/global_data.xlsx
+++ b/Data/excel/global_data.xlsx
@@ -461,10 +461,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -487,13 +487,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -503,6 +503,9 @@
       </c>
       <c r="H3" t="s">
         <v>15</v>
+      </c>
+      <c r="I3">
+        <v>18.20215944852766</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -685,13 +688,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -701,9 +704,6 @@
       </c>
       <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>14.04031231153615</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -714,10 +714,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -934,6 +934,9 @@
       </c>
       <c r="H2" t="s">
         <v>15</v>
+      </c>
+      <c r="I2">
+        <v>12.89424877781352</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -944,10 +947,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>

--- a/Data/excel/global_data.xlsx
+++ b/Data/excel/global_data.xlsx
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -934,9 +934,6 @@
       </c>
       <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>12.89424877781352</v>
       </c>
     </row>
     <row r="3" spans="1:9">
